--- a/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list(详细版).xlsx
+++ b/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list(详细版).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>中国人民银行湖北重点库金银锭类装箱清单</t>
   </si>
@@ -94,40 +94,70 @@
     <t>目测</t>
   </si>
   <si>
-    <t>杂金</t>
+    <t>杂银</t>
   </si>
   <si>
     <t>稀一锭</t>
   </si>
   <si>
-    <t>1-02-217-1</t>
-  </si>
-  <si>
-    <t>白令元宝</t>
-  </si>
-  <si>
-    <t>元宝形制</t>
-  </si>
-  <si>
-    <t>古铜镇</t>
+    <t>2-02-217-5</t>
+  </si>
+  <si>
+    <t>家分店</t>
+  </si>
+  <si>
+    <t>型混合是多个</t>
+  </si>
+  <si>
+    <t>湖北武汉</t>
   </si>
   <si>
     <t>好</t>
   </si>
   <si>
-    <t>零元人制</t>
+    <t>搜索三张表</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>1-02-217-2</t>
-  </si>
-  <si>
-    <t>1-02-217-8</t>
-  </si>
-  <si>
-    <t>1-02-217-9</t>
+    <t>2-02-217-6</t>
+  </si>
+  <si>
+    <t>制作地人</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2-02-217-7</t>
+  </si>
+  <si>
+    <t>是人都挺好</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>第二版</t>
+  </si>
+  <si>
+    <t>市政府</t>
+  </si>
+  <si>
+    <t>2-02-217-8</t>
+  </si>
+  <si>
+    <t>热轧板</t>
+  </si>
+  <si>
+    <t>多个</t>
+  </si>
+  <si>
+    <t>设置</t>
   </si>
   <si>
     <t>小计</t>
@@ -1393,7 +1423,7 @@
       </c>
       <c r="M6" s="26" t="n"/>
       <c r="N6" s="27" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O6" s="25" t="n"/>
       <c r="P6" s="24" t="n"/>
@@ -1419,16 +1449,32 @@
       <c r="D7" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="25" t="s"/>
-      <c r="F7" s="25" t="s"/>
-      <c r="G7" s="25" t="s"/>
-      <c r="H7" s="25" t="s"/>
-      <c r="I7" s="25" t="s"/>
+      <c r="E7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="J7" s="24" t="n"/>
-      <c r="K7" s="25" t="s"/>
-      <c r="L7" s="25" t="s"/>
+      <c r="K7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="M7" s="26" t="n"/>
-      <c r="N7" s="27" t="n"/>
+      <c r="N7" s="27" t="n">
+        <v>88</v>
+      </c>
       <c r="O7" s="25" t="n"/>
       <c r="P7" s="24" t="n"/>
       <c r="Q7" s="26" t="n"/>
@@ -1436,7 +1482,9 @@
       <c r="S7" s="25" t="n"/>
       <c r="T7" s="25" t="n"/>
       <c r="U7" s="24" t="n"/>
-      <c r="V7" s="25" t="s"/>
+      <c r="V7" s="25" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="8" s="21" spans="1:22">
       <c r="A8" s="24" t="n">
@@ -1449,18 +1497,34 @@
         <v>27</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="25" t="s"/>
-      <c r="F8" s="25" t="s"/>
-      <c r="G8" s="25" t="s"/>
-      <c r="H8" s="25" t="s"/>
-      <c r="I8" s="25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="24" t="n"/>
-      <c r="K8" s="25" t="s"/>
-      <c r="L8" s="25" t="s"/>
+      <c r="K8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="M8" s="26" t="n"/>
-      <c r="N8" s="27" t="n"/>
+      <c r="N8" s="27" t="n">
+        <v>98</v>
+      </c>
       <c r="O8" s="25" t="n"/>
       <c r="P8" s="24" t="n"/>
       <c r="Q8" s="26" t="n"/>
@@ -1468,7 +1532,9 @@
       <c r="S8" s="25" t="n"/>
       <c r="T8" s="25" t="n"/>
       <c r="U8" s="24" t="n"/>
-      <c r="V8" s="25" t="s"/>
+      <c r="V8" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="9" s="21" spans="1:22">
       <c r="A9" s="24" t="n">
@@ -1481,18 +1547,34 @@
         <v>27</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="25" t="s"/>
-      <c r="F9" s="25" t="s"/>
-      <c r="G9" s="25" t="s"/>
-      <c r="H9" s="25" t="s"/>
-      <c r="I9" s="25" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="J9" s="24" t="n"/>
-      <c r="K9" s="25" t="s"/>
-      <c r="L9" s="25" t="s"/>
+      <c r="K9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="M9" s="26" t="n"/>
-      <c r="N9" s="27" t="n"/>
+      <c r="N9" s="27" t="n">
+        <v>98</v>
+      </c>
       <c r="O9" s="25" t="n"/>
       <c r="P9" s="24" t="n"/>
       <c r="Q9" s="26" t="n"/>
@@ -1500,7 +1582,9 @@
       <c r="S9" s="25" t="n"/>
       <c r="T9" s="25" t="n"/>
       <c r="U9" s="24" t="n"/>
-      <c r="V9" s="25" t="s"/>
+      <c r="V9" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="10" s="21" spans="1:22">
       <c r="A10" s="24" t="n">
@@ -2180,7 +2264,7 @@
     </row>
     <row customHeight="1" ht="17.1" r="36" s="21" spans="1:22">
       <c r="A36" s="24" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B36" s="23" t="n"/>
       <c r="C36" s="24" t="n"/>
@@ -2212,7 +2296,7 @@
     </row>
     <row customHeight="1" ht="17.1" r="37" s="21" spans="1:22">
       <c r="A37" s="24" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B37" s="23" t="n"/>
       <c r="C37" s="24" t="n"/>
@@ -2244,13 +2328,13 @@
     </row>
     <row customHeight="1" ht="32.25" r="38" s="21" spans="1:22">
       <c r="B38" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="n"/>
       <c r="E38" s="9" t="n"/>
       <c r="F38" s="9" t="n"/>
       <c r="G38" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" s="9" t="n"/>
       <c r="I38" s="9" t="n"/>
@@ -2263,7 +2347,7 @@
       <c r="P38" s="16" t="n"/>
       <c r="Q38" s="30" t="n"/>
       <c r="R38" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S38" s="16" t="n"/>
     </row>

--- a/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list(详细版).xlsx
+++ b/gsinfosite/data/box/1/2017_1-1号箱_湖北重点库_list(详细版).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>中国人民银行湖北重点库金银锭类装箱清单</t>
   </si>
@@ -94,70 +94,127 @@
     <t>目测</t>
   </si>
   <si>
-    <t>杂银</t>
+    <t>杂金</t>
   </si>
   <si>
     <t>稀一锭</t>
   </si>
   <si>
-    <t>2-02-217-5</t>
-  </si>
-  <si>
-    <t>家分店</t>
-  </si>
-  <si>
-    <t>型混合是多个</t>
-  </si>
-  <si>
-    <t>湖北武汉</t>
+    <t>1-02-217-9</t>
+  </si>
+  <si>
+    <t>SDR一年</t>
+  </si>
+  <si>
+    <t>人的一天</t>
+  </si>
+  <si>
+    <t>人体内</t>
   </si>
   <si>
     <t>好</t>
   </si>
   <si>
-    <t>搜索三张表</t>
+    <t>二塔</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>2-02-217-6</t>
-  </si>
-  <si>
-    <t>制作地人</t>
+    <t>1-02-217-10</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>人体宴</t>
+  </si>
+  <si>
+    <t>r7m</t>
+  </si>
+  <si>
+    <t>er6</t>
+  </si>
+  <si>
+    <t>1-02-217-11</t>
+  </si>
+  <si>
+    <t>人都是你要</t>
+  </si>
+  <si>
+    <t>ed认得他没有</t>
+  </si>
+  <si>
+    <t>而已</t>
+  </si>
+  <si>
+    <t>送人头</t>
+  </si>
+  <si>
+    <t>1-02-217-13</t>
+  </si>
+  <si>
+    <t>的是页面</t>
+  </si>
+  <si>
+    <t>打印mwy6</t>
+  </si>
+  <si>
+    <t>ry6吗</t>
   </si>
   <si>
     <t>中</t>
   </si>
   <si>
+    <t>如是说</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>2-02-217-7</t>
-  </si>
-  <si>
-    <t>是人都挺好</t>
-  </si>
-  <si>
-    <t>后台</t>
-  </si>
-  <si>
-    <t>第二版</t>
-  </si>
-  <si>
-    <t>市政府</t>
-  </si>
-  <si>
-    <t>2-02-217-8</t>
-  </si>
-  <si>
-    <t>热轧板</t>
-  </si>
-  <si>
-    <t>多个</t>
-  </si>
-  <si>
-    <t>设置</t>
+    <t>1-02-217-12</t>
+  </si>
+  <si>
+    <t>气味</t>
+  </si>
+  <si>
+    <t>我去</t>
+  </si>
+  <si>
+    <t>1-02-217-14</t>
+  </si>
+  <si>
+    <t>阿萨德</t>
+  </si>
+  <si>
+    <t>冯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 是的</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1-02-217-15</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>梵蒂冈</t>
+  </si>
+  <si>
+    <t>复合弓</t>
+  </si>
+  <si>
+    <t>1-02-217-16</t>
+  </si>
+  <si>
+    <t>1-02-217-17</t>
+  </si>
+  <si>
+    <t>1-02-217-18</t>
   </si>
   <si>
     <t>小计</t>
@@ -1421,16 +1478,24 @@
       <c r="L6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="26" t="n"/>
+      <c r="M6" s="26" t="n">
+        <v>453</v>
+      </c>
       <c r="N6" s="27" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O6" s="25" t="n"/>
       <c r="P6" s="24" t="n"/>
       <c r="Q6" s="26" t="n"/>
-      <c r="R6" s="25" t="n"/>
-      <c r="S6" s="25" t="n"/>
-      <c r="T6" s="25" t="n"/>
+      <c r="R6" s="25" t="n">
+        <v>54</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>56</v>
+      </c>
+      <c r="T6" s="25" t="n">
+        <v>65</v>
+      </c>
       <c r="U6" s="24" t="n"/>
       <c r="V6" s="25" t="s">
         <v>34</v>
@@ -1450,40 +1515,48 @@
         <v>35</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J7" s="24" t="n"/>
       <c r="K7" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="26" t="n"/>
+        <v>39</v>
+      </c>
+      <c r="M7" s="26" t="n">
+        <v>56</v>
+      </c>
       <c r="N7" s="27" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="O7" s="25" t="n"/>
       <c r="P7" s="24" t="n"/>
       <c r="Q7" s="26" t="n"/>
-      <c r="R7" s="25" t="n"/>
-      <c r="S7" s="25" t="n"/>
-      <c r="T7" s="25" t="n"/>
+      <c r="R7" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="S7" s="25" t="n">
+        <v>46</v>
+      </c>
+      <c r="T7" s="25" t="n">
+        <v>46</v>
+      </c>
       <c r="U7" s="24" t="n"/>
       <c r="V7" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row customHeight="1" ht="17.1" r="8" s="21" spans="1:22">
@@ -1497,40 +1570,48 @@
         <v>27</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="24" t="n"/>
       <c r="K8" s="25" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="26" t="n"/>
+        <v>44</v>
+      </c>
+      <c r="M8" s="26" t="n">
+        <v>45</v>
+      </c>
       <c r="N8" s="27" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="O8" s="25" t="n"/>
       <c r="P8" s="24" t="n"/>
       <c r="Q8" s="26" t="n"/>
-      <c r="R8" s="25" t="n"/>
-      <c r="S8" s="25" t="n"/>
-      <c r="T8" s="25" t="n"/>
+      <c r="R8" s="25" t="n">
+        <v>54</v>
+      </c>
+      <c r="S8" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" s="25" t="n">
+        <v>4</v>
+      </c>
       <c r="U8" s="24" t="n"/>
       <c r="V8" s="25" t="s">
         <v>34</v>
@@ -1547,33 +1628,33 @@
         <v>27</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="24" t="n"/>
       <c r="K9" s="25" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M9" s="26" t="n"/>
       <c r="N9" s="27" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="O9" s="25" t="n"/>
       <c r="P9" s="24" t="n"/>
@@ -1583,164 +1664,254 @@
       <c r="T9" s="25" t="n"/>
       <c r="U9" s="24" t="n"/>
       <c r="V9" s="25" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="17.1" r="10" s="21" spans="1:22">
       <c r="A10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="n"/>
-      <c r="C10" s="24" t="n"/>
-      <c r="D10" s="24" t="n"/>
-      <c r="E10" s="24" t="n"/>
-      <c r="F10" s="24" t="n"/>
-      <c r="G10" s="24" t="n"/>
-      <c r="H10" s="24" t="n"/>
-      <c r="I10" s="24" t="n"/>
+      <c r="B10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n"/>
-      <c r="L10" s="24" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="29" t="n"/>
-      <c r="O10" s="24" t="n"/>
+      <c r="K10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="26" t="n"/>
+      <c r="N10" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O10" s="25" t="n"/>
       <c r="P10" s="24" t="n"/>
-      <c r="Q10" s="28" t="n"/>
-      <c r="R10" s="24" t="n"/>
-      <c r="S10" s="24" t="n"/>
-      <c r="T10" s="24" t="n"/>
+      <c r="Q10" s="26" t="n"/>
+      <c r="R10" s="25" t="n"/>
+      <c r="S10" s="25" t="n"/>
+      <c r="T10" s="25" t="n"/>
       <c r="U10" s="24" t="n"/>
-      <c r="V10" s="24" t="n"/>
+      <c r="V10" s="25" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="11" s="21" spans="1:22">
       <c r="A11" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="24" t="n"/>
-      <c r="C11" s="24" t="n"/>
-      <c r="D11" s="24" t="n"/>
-      <c r="E11" s="24" t="n"/>
-      <c r="F11" s="24" t="n"/>
-      <c r="G11" s="24" t="n"/>
-      <c r="H11" s="24" t="n"/>
-      <c r="I11" s="24" t="n"/>
+      <c r="B11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="J11" s="24" t="n"/>
-      <c r="K11" s="24" t="n"/>
-      <c r="L11" s="24" t="n"/>
-      <c r="M11" s="28" t="n"/>
-      <c r="N11" s="29" t="n"/>
-      <c r="O11" s="24" t="n"/>
+      <c r="K11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="26" t="n"/>
+      <c r="N11" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" s="25" t="n"/>
       <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="28" t="n"/>
-      <c r="R11" s="24" t="n"/>
-      <c r="S11" s="24" t="n"/>
-      <c r="T11" s="24" t="n"/>
+      <c r="Q11" s="26" t="n"/>
+      <c r="R11" s="25" t="n"/>
+      <c r="S11" s="25" t="n"/>
+      <c r="T11" s="25" t="n"/>
       <c r="U11" s="24" t="n"/>
-      <c r="V11" s="24" t="n"/>
+      <c r="V11" s="25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="12" s="21" spans="1:22">
       <c r="A12" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="24" t="n"/>
-      <c r="C12" s="24" t="n"/>
-      <c r="D12" s="24" t="n"/>
-      <c r="E12" s="24" t="n"/>
-      <c r="F12" s="24" t="n"/>
-      <c r="G12" s="24" t="n"/>
-      <c r="H12" s="24" t="n"/>
-      <c r="I12" s="24" t="n"/>
+      <c r="B12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="J12" s="24" t="n"/>
-      <c r="K12" s="24" t="n"/>
-      <c r="L12" s="24" t="n"/>
-      <c r="M12" s="28" t="n"/>
-      <c r="N12" s="29" t="n"/>
-      <c r="O12" s="24" t="n"/>
+      <c r="K12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="26" t="n"/>
+      <c r="N12" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" s="25" t="n"/>
       <c r="P12" s="24" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="24" t="n"/>
-      <c r="S12" s="24" t="n"/>
-      <c r="T12" s="24" t="n"/>
+      <c r="Q12" s="26" t="n"/>
+      <c r="R12" s="25" t="n"/>
+      <c r="S12" s="25" t="n"/>
+      <c r="T12" s="25" t="n"/>
       <c r="U12" s="24" t="n"/>
-      <c r="V12" s="24" t="n"/>
+      <c r="V12" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.1" r="13" s="21" spans="1:22">
       <c r="A13" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="24" t="n"/>
-      <c r="H13" s="24" t="n"/>
-      <c r="I13" s="24" t="n"/>
+      <c r="B13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="25" t="s"/>
+      <c r="F13" s="25" t="s"/>
+      <c r="G13" s="25" t="s"/>
+      <c r="H13" s="25" t="s"/>
+      <c r="I13" s="25" t="s"/>
       <c r="J13" s="24" t="n"/>
-      <c r="K13" s="24" t="n"/>
-      <c r="L13" s="24" t="n"/>
-      <c r="M13" s="28" t="n"/>
-      <c r="N13" s="29" t="n"/>
-      <c r="O13" s="24" t="n"/>
+      <c r="K13" s="25" t="s"/>
+      <c r="L13" s="25" t="s"/>
+      <c r="M13" s="26" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="25" t="n"/>
       <c r="P13" s="24" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="24" t="n"/>
-      <c r="S13" s="24" t="n"/>
-      <c r="T13" s="24" t="n"/>
+      <c r="Q13" s="26" t="n"/>
+      <c r="R13" s="25" t="n"/>
+      <c r="S13" s="25" t="n"/>
+      <c r="T13" s="25" t="n"/>
       <c r="U13" s="24" t="n"/>
-      <c r="V13" s="24" t="n"/>
+      <c r="V13" s="25" t="s"/>
     </row>
     <row customHeight="1" ht="17.1" r="14" s="21" spans="1:22">
       <c r="A14" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="24" t="n"/>
-      <c r="C14" s="24" t="n"/>
-      <c r="D14" s="24" t="n"/>
-      <c r="E14" s="24" t="n"/>
-      <c r="F14" s="24" t="n"/>
-      <c r="G14" s="24" t="n"/>
-      <c r="H14" s="24" t="n"/>
-      <c r="I14" s="24" t="n"/>
+      <c r="B14" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="25" t="s"/>
+      <c r="F14" s="25" t="s"/>
+      <c r="G14" s="25" t="s"/>
+      <c r="H14" s="25" t="s"/>
+      <c r="I14" s="25" t="s"/>
       <c r="J14" s="24" t="n"/>
-      <c r="K14" s="24" t="n"/>
-      <c r="L14" s="24" t="n"/>
-      <c r="M14" s="28" t="n"/>
-      <c r="N14" s="29" t="n"/>
-      <c r="O14" s="24" t="n"/>
+      <c r="K14" s="25" t="s"/>
+      <c r="L14" s="25" t="s"/>
+      <c r="M14" s="26" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="25" t="n"/>
       <c r="P14" s="24" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="24" t="n"/>
-      <c r="S14" s="24" t="n"/>
-      <c r="T14" s="24" t="n"/>
+      <c r="Q14" s="26" t="n"/>
+      <c r="R14" s="25" t="n"/>
+      <c r="S14" s="25" t="n"/>
+      <c r="T14" s="25" t="n"/>
       <c r="U14" s="24" t="n"/>
-      <c r="V14" s="24" t="n"/>
+      <c r="V14" s="25" t="s"/>
     </row>
     <row customHeight="1" ht="16.5" r="15" s="21" spans="1:22">
       <c r="A15" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="n"/>
-      <c r="C15" s="24" t="n"/>
-      <c r="D15" s="24" t="n"/>
-      <c r="E15" s="24" t="n"/>
-      <c r="F15" s="24" t="n"/>
-      <c r="G15" s="24" t="n"/>
-      <c r="H15" s="24" t="n"/>
-      <c r="I15" s="24" t="n"/>
+      <c r="B15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="25" t="s"/>
+      <c r="F15" s="25" t="s"/>
+      <c r="G15" s="25" t="s"/>
+      <c r="H15" s="25" t="s"/>
+      <c r="I15" s="25" t="s"/>
       <c r="J15" s="24" t="n"/>
-      <c r="K15" s="24" t="n"/>
-      <c r="L15" s="24" t="n"/>
-      <c r="M15" s="28" t="n"/>
-      <c r="N15" s="29" t="n"/>
-      <c r="O15" s="24" t="n"/>
+      <c r="K15" s="25" t="s"/>
+      <c r="L15" s="25" t="s"/>
+      <c r="M15" s="26" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="25" t="n"/>
       <c r="P15" s="24" t="n"/>
-      <c r="Q15" s="28" t="n"/>
-      <c r="R15" s="24" t="n"/>
-      <c r="S15" s="24" t="n"/>
-      <c r="T15" s="24" t="n"/>
+      <c r="Q15" s="26" t="n"/>
+      <c r="R15" s="25" t="n"/>
+      <c r="S15" s="25" t="n"/>
+      <c r="T15" s="25" t="n"/>
       <c r="U15" s="24" t="n"/>
-      <c r="V15" s="24" t="n"/>
+      <c r="V15" s="25" t="s"/>
     </row>
     <row customHeight="1" ht="17.25" r="16" s="21" spans="1:22">
       <c r="A16" s="24" t="n">
@@ -2264,7 +2435,7 @@
     </row>
     <row customHeight="1" ht="17.1" r="36" s="21" spans="1:22">
       <c r="A36" s="24" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B36" s="23" t="n"/>
       <c r="C36" s="24" t="n"/>
@@ -2278,14 +2449,14 @@
       <c r="K36" s="24" t="n"/>
       <c r="L36" s="24" t="n"/>
       <c r="M36" s="28">
-        <f>SUM(M6:M9)</f>
+        <f>SUM(M6:M15)</f>
         <v/>
       </c>
       <c r="N36" s="29" t="n"/>
       <c r="O36" s="24" t="n"/>
       <c r="P36" s="24" t="n"/>
       <c r="Q36" s="28">
-        <f>SUM(Q6:Q9)</f>
+        <f>SUM(Q6:Q15)</f>
         <v/>
       </c>
       <c r="R36" s="24" t="n"/>
@@ -2296,7 +2467,7 @@
     </row>
     <row customHeight="1" ht="17.1" r="37" s="21" spans="1:22">
       <c r="A37" s="24" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B37" s="23" t="n"/>
       <c r="C37" s="24" t="n"/>
@@ -2328,13 +2499,13 @@
     </row>
     <row customHeight="1" ht="32.25" r="38" s="21" spans="1:22">
       <c r="B38" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D38" s="9" t="n"/>
       <c r="E38" s="9" t="n"/>
       <c r="F38" s="9" t="n"/>
       <c r="G38" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H38" s="9" t="n"/>
       <c r="I38" s="9" t="n"/>
@@ -2347,7 +2518,7 @@
       <c r="P38" s="16" t="n"/>
       <c r="Q38" s="30" t="n"/>
       <c r="R38" s="16" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="S38" s="16" t="n"/>
     </row>
